--- a/Snowflake_Assessment Questions 20241207.xlsx
+++ b/Snowflake_Assessment Questions 20241207.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilsh\Desktop\Snowflake tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88887AA-5794-4230-A496-B335A7307363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690C3718-3E3D-4832-82DD-EC0C30B148D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="703" xr2:uid="{BAAC88C6-5D8A-4573-BAE9-24495D555C59}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -169,10 +169,6 @@
 Named Stage</t>
   </si>
   <si>
-    <t>SELECT CONCAT('%', EMPLOYEE, '%') AS EMPLOYEE_WITH_PERCENT
-FROM your_table;</t>
-  </si>
-  <si>
     <t>Timestamp, Offset, and query ID or Statement ID</t>
   </si>
   <si>
@@ -199,9 +195,6 @@
 )</t>
   </si>
   <si>
-    <t>Export the data from the snow flake table, Get download the file from the snowflake. Use COPY INTO Check the table where the data is avaiable , Use Snowsql GET or put</t>
-  </si>
-  <si>
     <t>CREATE WAREHOUSE XF_TUTS_WH WITH WAREHOUSE_SIZE = 'X-SMALL' 
 AUTO_SUSPEND = 600
 AUTO_RESUME = TRUE;</t>
@@ -217,7 +210,49 @@
 use warehouse COMPUTE_WH_XL;</t>
   </si>
   <si>
-    <t>30 credits</t>
+    <t>SELECT vehicle data: supplier_name AS supplier_name::STRING FROM vehicle_inventory;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1 : Creating table 
+	Create TABLE My_Snowflake(empid int,empname varchar(100),salary float); 
+	Step2 : Create Stage 
+	Create or Replace STAGE my_stage; 
+	Step3 : Upload the file to stage using snowsql 
+	snowsql -a &lt;account_name&gt; -u &lt;username&gt; -d &lt;database_name&gt; -s &lt;schema_name&gt; -q "PUT file://path/to/SF.csv @my_stage;" 
+	Step 4: Copy data into table 
+	Copy Into My_Snowflake 
+	From @my_stage/SF.csv 
+	File_Format = (TYPE = 'CSV' FIELD_OPTIONALLY_ENCLOSED_BY = '"' SKIP_HEADER = 1); 
+</t>
+  </si>
+  <si>
+    <t>SELECT CONCAT('%', EMPLOYEE, '%') AS EMPLOYEE_WITH_PERCENT
+FROM MY_Snowflake;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT car_data:dealership::string AS dealership_data 
+          FROM car_sales; </t>
+  </si>
+  <si>
+    <t>36 credits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export the data to the storage location(e.g. S3 bucket)
+      Create a named stage in Snowflake to refer the external storage location
+      Execute COPY INTO command to unload the data from Snowflake table to specified storage location.
+Step 1: First creating an stage 
+	CREATE OR REPLACE STAGE Stage01 
+	stage URL = 's3://bucket/path' 
+	FILE_FORMAT = (  
+	TYPE = 'CSV'  
+	FIELD_DELIMITER = ','  
+	SKIP_HEADER = 1 ); 
+Step 2 : Now Use Copy Into command to Unload data 
+	COPY INTO @Stage01/unload/db 
+	FROM db
+	FILE_FORMAT = ‘csv_format’ 
+	Overwrite = False; 
+</t>
   </si>
 </sst>
 </file>
@@ -608,8 +643,8 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="290.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -659,7 +694,9 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -686,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -699,7 +736,9 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
@@ -712,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -726,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
@@ -739,6 +778,9 @@
       <c r="C9">
         <v>10</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
@@ -751,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -765,7 +807,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -779,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -793,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="145" x14ac:dyDescent="0.35">
@@ -807,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -821,10 +863,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -835,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
